--- a/진행/Dialogue.xlsx
+++ b/진행/Dialogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\SpaceShipLooting\진행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B29BC7-B55A-448C-BF2A-5AFDE05001EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD21A00-79C7-426F-97BF-3BC7CC2AEF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2580" windowWidth="12525" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>index</t>
   </si>
@@ -84,46 +84,113 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>["야 오른쪽 봐", "여기 들어가봐 한번"]</t>
+    <t>stage1-1</t>
+  </si>
+  <si>
+    <t>stage1-2</t>
+  </si>
+  <si>
+    <t>stage1-3</t>
+  </si>
+  <si>
+    <t>stage1-4</t>
+  </si>
+  <si>
+    <t>stage1-5</t>
+  </si>
+  <si>
+    <t>stage1-6</t>
+  </si>
+  <si>
+    <t>stage1-8</t>
+  </si>
+  <si>
+    <t>stage1-9</t>
+  </si>
+  <si>
+    <t>stage1-7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>["저거 퍼즐이 세그먼트 같은대?"]</t>
+    <t>stage2-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>["야 뭐 잘못건드렸는데", "적이 오고 있으니 몸을 숨겨!"]</t>
+    <t>stage2-2</t>
+  </si>
+  <si>
+    <t>stage2-3</t>
+  </si>
+  <si>
+    <t>stage2-4</t>
+  </si>
+  <si>
+    <t>stage2-5</t>
+  </si>
+  <si>
+    <t>stage2-6</t>
+  </si>
+  <si>
+    <t>stage2-7</t>
+  </si>
+  <si>
+    <t>stage3-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stage1-1</t>
-  </si>
-  <si>
-    <t>stage1-2</t>
-  </si>
-  <si>
-    <t>stage1-3</t>
-  </si>
-  <si>
-    <t>stage1-4</t>
-  </si>
-  <si>
-    <t>stage1-5</t>
-  </si>
-  <si>
-    <t>stage1-6</t>
-  </si>
-  <si>
-    <t>stage1-7</t>
-  </si>
-  <si>
-    <t>stage1-8</t>
-  </si>
-  <si>
-    <t>stage1-9</t>
-  </si>
-  <si>
-    <t>stage1-10</t>
+    <t>stage3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일단 무사히 들어왔다., 기계실을 망가뜨려 우주선의 조명을 끄자.]</t>
+  </si>
+  <si>
+    <t>[이곳이 아닌 것 같다., 다른 곳을 찾아보자.]</t>
+  </si>
+  <si>
+    <t>[이곳이 기계실인 것 같다. ]</t>
+  </si>
+  <si>
+    <t>[일단 무사히 들어왔다. 살펴보자.]</t>
+  </si>
+  <si>
+    <t>[벽의 이 기호는..., 세그먼트 숫자인 것 같다. , 방 좌우의 색 버튼을 확인하고 풀어보자.]</t>
+  </si>
+  <si>
+    <t>[이런 오답이군. ,적이 나올테니 숨어야겠어.]</t>
+  </si>
+  <si>
+    <t>[드디어 불이 꺼진 것 같다. ,위 층으로 이동하자.]</t>
+  </si>
+  <si>
+    <t>[지나갈 수가 없다. ,앉아서 이동해야 할 것 같다. ]</t>
+  </si>
+  <si>
+    <t>[잠입을 위해 나이트 비전을 켜서 시야를 확보하자. ]</t>
+  </si>
+  <si>
+    <t>[적들이 많다., 시선을 분산 시키기 위해 가스밸브를 열어야 할 것 같다. ]</t>
+  </si>
+  <si>
+    <t>[우선 저 한명을 없애야 할 것 같다., 다른 적들을 피해 은신하며 가자. ]</t>
+  </si>
+  <si>
+    <t>[들키지 않도록 등 뒤에서 칼로 암살하는 것이 좋을 것 같다.]</t>
+  </si>
+  <si>
+    <t>[뒷면에 뭐가 있는 것 같다.]</t>
+  </si>
+  <si>
+    <t>[4개의 번호가 필요한 것 같다., 단서를 찾아보자.]</t>
+  </si>
+  <si>
+    <t>[이 곳에 단서가 있는 것 같다.]</t>
+  </si>
+  <si>
+    <t>[드디어 함장실에 도착하였다., 적을 처치하자.]</t>
+  </si>
+  <si>
+    <t>[적이 코어에 에너지를 주고있다.,에너지 연결선을 차단하자.]</t>
   </si>
 </sst>
 </file>
@@ -1572,14 +1639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
@@ -1604,101 +1671,147 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>

--- a/진행/Dialogue.xlsx
+++ b/진행/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\SpaceShipLooting\진행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD21A00-79C7-426F-97BF-3BC7CC2AEF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0BCD5D-8608-47A7-8250-D13568AEEBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,35 +53,35 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2000000: </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string_index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>스트링 인덱스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대사 배열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stage1-1</t>
@@ -109,11 +109,11 @@
   </si>
   <si>
     <t>stage1-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stage2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stage2-2</t>
@@ -135,11 +135,11 @@
   </si>
   <si>
     <t>stage3-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stage3-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[일단 무사히 들어왔다., 기계실을 망가뜨려 우주선의 조명을 끄자.]</t>
@@ -151,9 +151,6 @@
     <t>[이곳이 기계실인 것 같다. ]</t>
   </si>
   <si>
-    <t>[일단 무사히 들어왔다. 살펴보자.]</t>
-  </si>
-  <si>
     <t>[벽의 이 기호는..., 세그먼트 숫자인 것 같다. , 방 좌우의 색 버튼을 확인하고 풀어보자.]</t>
   </si>
   <si>
@@ -191,18 +188,139 @@
   </si>
   <si>
     <t>[적이 코어에 에너지를 주고있다.,에너지 연결선을 차단하자.]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼즐이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>.,살펴보자.]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -302,22 +420,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,7 +1747,7 @@
     <row r="997" ht="16.5" customHeight="1"/>
     <row r="998" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1640,7 +1758,7 @@
   <dimension ref="A1:B1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1706,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1">
@@ -1714,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1">
@@ -1722,7 +1840,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1">
@@ -1730,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1">
@@ -1738,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1">
@@ -1746,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1">
@@ -1754,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1">
@@ -1762,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" customHeight="1">
@@ -1770,7 +1888,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" customHeight="1">
@@ -1778,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1">
@@ -1786,7 +1904,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1">
@@ -1794,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1">
@@ -1802,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1">
@@ -1810,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1">
@@ -2823,7 +2941,7 @@
     <row r="1009" ht="16.5" customHeight="1"/>
     <row r="1010" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/진행/Dialogue.xlsx
+++ b/진행/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\SpaceShipLooting\진행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0BCD5D-8608-47A7-8250-D13568AEEBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8209E2-1DFD-416E-A440-86329626477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>index</t>
   </si>
@@ -301,6 +301,22 @@
       </rPr>
       <t>.,살펴보자.]</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage1-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[우주선에 잘 잠입했군., 장비가 장착되어 있는지 허리를 살펴보자.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[바닥에 카드키가 떨어졌군., 앞에 있는 문과 관련이 있어 보이는데?]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2-8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1755,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1010"/>
+  <dimension ref="A1:B1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1789,155 +1805,163 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
@@ -1955,11 +1979,17 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1"/>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="29" spans="1:2" ht="16.5" customHeight="1"/>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="32" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
@@ -2940,6 +2970,8 @@
     <row r="1008" ht="16.5" customHeight="1"/>
     <row r="1009" ht="16.5" customHeight="1"/>
     <row r="1010" ht="16.5" customHeight="1"/>
+    <row r="1011" ht="16.5" customHeight="1"/>
+    <row r="1012" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
